--- a/Scripts/ItemNPCScript.xlsx
+++ b/Scripts/ItemNPCScript.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\2학년 여름방학\자바GUI스터디\미니회의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\2학년 여름방학\자바GUI스터디\미니회의\Script모음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3780D3-238A-43E1-9E8D-63BC705E70F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F955A3C-8EFF-4AD7-A17B-55CB8287A33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="0" windowWidth="7170" windowHeight="14250" xr2:uid="{72CEA611-D84D-4D48-A514-AF565144B9FA}"/>
+    <workbookView xWindow="15930" yWindow="480" windowWidth="12825" windowHeight="14250" xr2:uid="{72CEA611-D84D-4D48-A514-AF565144B9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>NPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 볼펜이다! 역시 찾아줄 줄 알았어. 정말 고마워!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무들이 생기를 되찾고 있구만..! 음음(만족)!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>믿음직한 당신! 혹시 내 볼펜은 못 봤어? 내가 아끼는 건데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암호를 풀어내다니… 영리한 인간이구만. 그래! 그 메시지를 잘 기억하게나..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>짧은 시간에 많은 악마어를 배웠네요? 대단해요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +128,46 @@
   </si>
   <si>
     <t>당신, 요새 악마들 사이에 유행하는 인간 소설 알지? 그 책을 악마어로 해석한 책이 있는데 그게 그렇게 재밌다더군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 볼펜이다! 역시 찾아줄 줄 알았어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿음직한 당신! 혹시 내 볼펜은 못 봤어..? 내가 아끼는 건데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근시간을 놓쳐버렸어.. 밤엔 그들이 나오는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">암호를 풀어내다니… 영리한 인간이구만. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래! 그 메시지를 잘 기억하게나..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오…오늘..저..점심을..먹고…난..뒤로…모…몸이..이상해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캬~ 얼른 퇴근하고 소설을 읽고싶구만!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 시키는 일을 할 뿐이야 히히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마 사원들 보면 인간 사원들과 별로 다르지 않아요. 모두 힘들어보이거든요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,14 +236,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2352C14D-E512-40D8-9F47-47D4257A068E}" name="표1_457232" displayName="표1_457232" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{2352C14D-E512-40D8-9F47-47D4257A068E}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2352C14D-E512-40D8-9F47-47D4257A068E}" name="표1_457232" displayName="표1_457232" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{2352C14D-E512-40D8-9F47-47D4257A068E}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B610AF9F-2F7B-44BA-B851-798696BD954E}" name="NPC"/>
     <tableColumn id="2" xr3:uid="{9E6C7129-7F92-4CF2-B0FC-681909097B00}" name="Quest1"/>
     <tableColumn id="3" xr3:uid="{11A6F37E-1B31-42EB-923C-F9F41BAD695B}" name="Quest1Complete"/>
     <tableColumn id="4" xr3:uid="{F16481AE-26F9-46AD-946A-E64879F96B34}" name="Quest2"/>
     <tableColumn id="5" xr3:uid="{88AF44B1-A823-4BF9-9C49-61AB9A46A74A}" name="Quest2Complete"/>
+    <tableColumn id="6" xr3:uid="{F994CED4-2A34-4119-9667-615C71CC409C}" name="Complete"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -518,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34CBECD-B406-4D5E-90DB-C5B2CF7992C1}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +571,11 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -554,13 +586,16 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -568,16 +603,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -585,16 +623,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -602,27 +643,33 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -630,13 +677,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
